--- a/biology/Botanique/Evernia/Evernia.xlsx
+++ b/biology/Botanique/Evernia/Evernia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evernia (du grec euernes, « poussant bien »)[1] est un genre de lichens de la famille des Parmeliaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evernia (du grec euernes, « poussant bien ») est un genre de lichens de la famille des Parmeliaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont un thalle fruticuleux à ramifications en lanières pendantes, présentent une face supérieure gris-vert et une face inférieure blanche. Cette caractéristique permet de les distinguer des espèces du genre Ramalina qui ont des lanières aux deux faces de couleur gris-vert[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont un thalle fruticuleux à ramifications en lanières pendantes, présentent une face supérieure gris-vert et une face inférieure blanche. Cette caractéristique permet de les distinguer des espèces du genre Ramalina qui ont des lanières aux deux faces de couleur gris-vert.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Evernia divaricata (L.) Ach., 1810
 Evernia esorediosa (Müll.Arg.) DuRietz, 1924
